--- a/P/Work.WebApp/_Code/Excel/超渡法會疏文_個別祖先.xlsx
+++ b/P/Work.WebApp/_Code/Excel/超渡法會疏文_個別祖先.xlsx
@@ -172,7 +172,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -230,129 +230,116 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -699,34 +686,34 @@
   <dimension ref="A1:AG13"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AF9" sqref="AF9"/>
+      <selection sqref="A1:AG13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="36.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="9.125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="2.375" style="20" customWidth="1"/>
-    <col min="4" max="4" width="7.75" style="20" customWidth="1"/>
-    <col min="5" max="5" width="4.5" style="20" customWidth="1"/>
-    <col min="6" max="6" width="7.25" style="20" customWidth="1"/>
-    <col min="7" max="7" width="5.125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="2.375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="7.75" style="19" customWidth="1"/>
+    <col min="5" max="5" width="4.5" style="19" customWidth="1"/>
+    <col min="6" max="6" width="7.25" style="19" customWidth="1"/>
+    <col min="7" max="7" width="5.125" style="19" customWidth="1"/>
     <col min="8" max="8" width="5.375" style="11" customWidth="1"/>
     <col min="9" max="9" width="6.5" style="11" customWidth="1"/>
-    <col min="10" max="14" width="6.5" style="20" customWidth="1"/>
+    <col min="10" max="14" width="6.5" style="19" customWidth="1"/>
     <col min="15" max="15" width="1.5" style="12" customWidth="1"/>
-    <col min="16" max="16" width="7.25" style="20" customWidth="1"/>
+    <col min="16" max="16" width="7.25" style="19" customWidth="1"/>
     <col min="17" max="17" width="4.375" style="12" customWidth="1"/>
-    <col min="18" max="18" width="6.5" style="20" customWidth="1"/>
-    <col min="19" max="21" width="6" style="20" customWidth="1"/>
+    <col min="18" max="18" width="6.5" style="19" customWidth="1"/>
+    <col min="19" max="21" width="6" style="19" customWidth="1"/>
     <col min="22" max="22" width="1.5" style="12" customWidth="1"/>
     <col min="23" max="24" width="9.5" style="14" customWidth="1"/>
-    <col min="25" max="25" width="6" style="20" customWidth="1"/>
+    <col min="25" max="25" width="6" style="19" customWidth="1"/>
     <col min="26" max="26" width="9.5" style="11" customWidth="1"/>
     <col min="27" max="27" width="2.75" style="12" customWidth="1"/>
     <col min="28" max="28" width="9.5" style="11" customWidth="1"/>
-    <col min="29" max="29" width="5.75" style="20" customWidth="1"/>
-    <col min="30" max="30" width="7.75" style="20" customWidth="1"/>
+    <col min="29" max="29" width="5.75" style="19" customWidth="1"/>
+    <col min="30" max="30" width="7.75" style="19" customWidth="1"/>
     <col min="31" max="31" width="2.5" style="12" customWidth="1"/>
     <col min="32" max="32" width="14.75" style="12" customWidth="1"/>
     <col min="33" max="33" width="1.5" style="12" customWidth="1"/>
@@ -737,17 +724,17 @@
       <c r="A1" s="7"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="18"/>
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
       <c r="M1" s="18"/>
-      <c r="N1" s="19"/>
+      <c r="N1" s="39"/>
       <c r="O1" s="8"/>
       <c r="P1" s="18"/>
       <c r="Q1" s="8"/>
@@ -765,397 +752,397 @@
       <c r="AC1" s="18"/>
       <c r="AD1" s="18"/>
       <c r="AE1" s="8"/>
-      <c r="AF1" s="55"/>
+      <c r="AF1" s="40"/>
       <c r="AG1" s="8"/>
     </row>
     <row r="2" spans="1:33" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="52"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="41"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="52"/>
+      <c r="P2" s="41"/>
       <c r="Q2" s="4"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
       <c r="V2" s="4"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="54"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="43"/>
       <c r="Z2" s="10"/>
       <c r="AA2" s="4"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="19"/>
+      <c r="AC2" s="39"/>
       <c r="AD2" s="17"/>
       <c r="AE2" s="4"/>
-      <c r="AF2" s="55"/>
+      <c r="AF2" s="40"/>
       <c r="AG2" s="4"/>
     </row>
     <row r="3" spans="1:33" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="52"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="41"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="52"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="41"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="52"/>
+      <c r="P3" s="41"/>
       <c r="Q3" s="2"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
       <c r="V3" s="2"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="54"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="43"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="5"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
       <c r="AE3" s="2"/>
-      <c r="AF3" s="55"/>
+      <c r="AF3" s="40"/>
       <c r="AG3" s="2"/>
     </row>
     <row r="4" spans="1:33" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="55"/>
-      <c r="AG4" s="46"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="47"/>
     </row>
     <row r="5" spans="1:33" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="58"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="36"/>
       <c r="X5" s="15"/>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="32"/>
-      <c r="AA5" s="46"/>
-      <c r="AB5" s="32"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="48"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="55"/>
-      <c r="AG5" s="46"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="44"/>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="40"/>
+      <c r="AG5" s="47"/>
     </row>
     <row r="6" spans="1:33" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="45" t="s">
+      <c r="A6" s="45"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="54"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="50"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="43"/>
       <c r="Z6" s="51"/>
-      <c r="AA6" s="46"/>
+      <c r="AA6" s="47"/>
       <c r="AB6" s="51"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="48"/>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="55"/>
-      <c r="AG6" s="46"/>
+      <c r="AC6" s="39"/>
+      <c r="AD6" s="44"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="40"/>
+      <c r="AG6" s="47"/>
     </row>
     <row r="7" spans="1:33" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="54"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="54"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="43"/>
       <c r="Z7" s="51"/>
-      <c r="AA7" s="46"/>
+      <c r="AA7" s="47"/>
       <c r="AB7" s="51"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="48"/>
-      <c r="AE7" s="31"/>
-      <c r="AF7" s="55"/>
-      <c r="AG7" s="46"/>
+      <c r="AC7" s="39"/>
+      <c r="AD7" s="44"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="40"/>
+      <c r="AG7" s="47"/>
     </row>
     <row r="8" spans="1:33" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="36" t="s">
+      <c r="A8" s="45"/>
+      <c r="B8" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="54"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="43"/>
       <c r="Z8" s="51"/>
-      <c r="AA8" s="46"/>
+      <c r="AA8" s="47"/>
       <c r="AB8" s="51"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="48"/>
-      <c r="AE8" s="31"/>
-      <c r="AF8" s="55"/>
-      <c r="AG8" s="46"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="44"/>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="40"/>
+      <c r="AG8" s="47"/>
     </row>
     <row r="9" spans="1:33" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="47"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="54"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="43"/>
       <c r="Z9" s="51"/>
-      <c r="AA9" s="46"/>
+      <c r="AA9" s="47"/>
       <c r="AB9" s="51"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="48"/>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="28"/>
-      <c r="AG9" s="46"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="44"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="25"/>
+      <c r="AG9" s="47"/>
     </row>
     <row r="10" spans="1:33" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="54"/>
-      <c r="V10" s="46"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="54"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="43"/>
       <c r="Z10" s="51"/>
-      <c r="AA10" s="46"/>
+      <c r="AA10" s="47"/>
       <c r="AB10" s="51"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="48"/>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="28"/>
-      <c r="AG10" s="46"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="44"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="25"/>
+      <c r="AG10" s="47"/>
     </row>
     <row r="11" spans="1:33" ht="132" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="39"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="46"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="47"/>
       <c r="P11" s="16"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="54"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="43"/>
       <c r="Z11" s="51"/>
-      <c r="AA11" s="46"/>
+      <c r="AA11" s="47"/>
       <c r="AB11" s="51"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="48"/>
-      <c r="AE11" s="43"/>
-      <c r="AF11" s="57"/>
-      <c r="AG11" s="46"/>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="44"/>
+      <c r="AE11" s="54"/>
+      <c r="AF11" s="55"/>
+      <c r="AG11" s="47"/>
     </row>
     <row r="12" spans="1:33" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="46"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="47"/>
       <c r="P12" s="16"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="54"/>
-      <c r="V12" s="46"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="50"/>
-      <c r="Y12" s="54"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="43"/>
       <c r="Z12" s="51"/>
-      <c r="AA12" s="46"/>
+      <c r="AA12" s="47"/>
       <c r="AB12" s="51"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="48"/>
-      <c r="AE12" s="43"/>
-      <c r="AF12" s="44"/>
-      <c r="AG12" s="46"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="44"/>
+      <c r="AE12" s="54"/>
+      <c r="AF12" s="56"/>
+      <c r="AG12" s="47"/>
     </row>
     <row r="13" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -1194,50 +1181,6 @@
     </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0"/>
-  <mergeCells count="42">
-    <mergeCell ref="W10:W12"/>
-    <mergeCell ref="R2:R12"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="AG4:AG12"/>
-    <mergeCell ref="AB6:AB12"/>
-    <mergeCell ref="I4:I12"/>
-    <mergeCell ref="Q4:Q12"/>
-    <mergeCell ref="O4:O12"/>
-    <mergeCell ref="V4:V12"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="S2:S12"/>
-    <mergeCell ref="T2:T12"/>
-    <mergeCell ref="AF1:AF8"/>
-    <mergeCell ref="J2:J12"/>
-    <mergeCell ref="K2:K12"/>
-    <mergeCell ref="L2:L12"/>
-    <mergeCell ref="M2:M12"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="AA4:AA12"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="X2:X4"/>
-    <mergeCell ref="X6:X9"/>
-    <mergeCell ref="X10:X12"/>
-    <mergeCell ref="AD4:AD12"/>
-    <mergeCell ref="U2:U12"/>
-    <mergeCell ref="W2:W4"/>
-    <mergeCell ref="Y2:Y12"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="Z6:Z12"/>
-    <mergeCell ref="W5:W9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D12"/>
-    <mergeCell ref="H4:H12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="E5:F10"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0" top="0.19685039370078741" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="8" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
